--- a/alternate_mapping.xlsx
+++ b/alternate_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gowtham\Desktop\git trail\git\FHIR_Cigna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{368BC0F3-1179-4387-848C-371E62AD0B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDFE686-C643-401D-ABEE-E190047B0167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFCC4E8D-07A7-461F-8873-76F1179BF7FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="212">
   <si>
     <t>Hospitalization</t>
   </si>
@@ -4152,6 +4152,15 @@
   </si>
   <si>
     <t>Output doesn’t contain resources ONLY related to patient ID ifp-8972693f-069b-4714-82f9-f805ebf7800f</t>
+  </si>
+  <si>
+    <t>Issues: Care plan is not available</t>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Is there an an way of using oauth grant type client credentials rather than authorization code </t>
   </si>
 </sst>
 </file>
@@ -4266,14 +4275,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4590,10 +4599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817CF632-8C9A-4E06-8411-50CD3176216D}">
-  <dimension ref="A1:F500"/>
+  <dimension ref="A1:F504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502"/>
+    <sheetView tabSelected="1" topLeftCell="A480" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A504" sqref="A504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4629,10 +4638,10 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -4644,8 +4653,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -4687,7 +4696,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
@@ -4704,7 +4713,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="8"/>
       <c r="C11" t="s">
         <v>21</v>
       </c>
@@ -4719,7 +4728,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
@@ -4736,7 +4745,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="8"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -4750,8 +4759,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4759,12 +4768,12 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4772,1807 +4781,1807 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" s="8" t="s">
+      <c r="B259" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B261" s="8" t="s">
+      <c r="B261" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B265" s="8" t="s">
+      <c r="B265" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B268" s="8" t="s">
+      <c r="B268" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B271" s="8" t="s">
+      <c r="B271" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" s="8" t="s">
+      <c r="B273" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B276" s="8" t="s">
+      <c r="B276" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B278" s="8" t="s">
+      <c r="B278" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="8" t="s">
+      <c r="B279" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" s="8" t="s">
+      <c r="B280" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B281" s="8" t="s">
+      <c r="B281" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B282" s="8" t="s">
+      <c r="B282" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B283" s="8" t="s">
+      <c r="B283" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B284" s="8" t="s">
+      <c r="B284" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B289" s="8" t="s">
+      <c r="B289" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B290" s="8" t="s">
+      <c r="B290" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B292" s="8" t="s">
+      <c r="B292" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" s="8" t="s">
+      <c r="B293" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B294" s="8" t="s">
+      <c r="B294" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B295" s="8" t="s">
+      <c r="B295" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B296" s="8" t="s">
+      <c r="B296" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B297" s="8" t="s">
+      <c r="B297" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B298" s="8" t="s">
+      <c r="B298" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B299" s="8" t="s">
+      <c r="B299" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B300" s="8" t="s">
+      <c r="B300" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B301" s="8" t="s">
+      <c r="B301" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B303" s="8" t="s">
+      <c r="B303" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B304" s="8" t="s">
+      <c r="B304" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B305" s="8" t="s">
+      <c r="B305" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="8" t="s">
+      <c r="B306" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" s="8" t="s">
+      <c r="B307" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B308" s="8" t="s">
+      <c r="B308" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B309" s="8" t="s">
+      <c r="B309" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B311" s="8" t="s">
+      <c r="B311" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B313" s="8" t="s">
+      <c r="B313" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B314" s="8" t="s">
+      <c r="B314" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B315" s="8" t="s">
+      <c r="B315" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B316" s="8" t="s">
+      <c r="B316" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B317" s="8" t="s">
+      <c r="B317" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B319" s="8" t="s">
+      <c r="B319" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B320" s="8" t="s">
+      <c r="B320" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B321" s="8" t="s">
+      <c r="B321" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B322" s="8" t="s">
+      <c r="B322" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B323" s="8" t="s">
+      <c r="B323" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B324" s="8" t="s">
+      <c r="B324" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B325" s="8" t="s">
+      <c r="B325" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B326" s="8" t="s">
+      <c r="B326" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B327" s="8" t="s">
+      <c r="B327" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B328" s="8" t="s">
+      <c r="B328" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B329" s="8" t="s">
+      <c r="B329" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B330" s="8" t="s">
+      <c r="B330" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B331" s="8" t="s">
+      <c r="B331" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B332" s="8" t="s">
+      <c r="B332" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B333" s="8" t="s">
+      <c r="B333" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B334" s="8" t="s">
+      <c r="B334" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B335" s="8" t="s">
+      <c r="B335" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B336" s="8" t="s">
+      <c r="B336" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B337" s="8" t="s">
+      <c r="B337" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B338" s="8" t="s">
+      <c r="B338" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B339" s="8" t="s">
+      <c r="B339" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B340" s="8" t="s">
+      <c r="B340" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B341" s="8" t="s">
+      <c r="B341" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B342" s="8" t="s">
+      <c r="B342" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B343" s="8" t="s">
+      <c r="B343" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B344" s="8" t="s">
+      <c r="B344" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B345" s="8" t="s">
+      <c r="B345" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B346" s="8" t="s">
+      <c r="B346" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B347" s="8" t="s">
+      <c r="B347" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B348" s="8" t="s">
+      <c r="B348" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B349" s="8" t="s">
+      <c r="B349" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B350" s="8" t="s">
+      <c r="B350" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B352" s="8" t="s">
+      <c r="B352" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B353" s="8" t="s">
+      <c r="B353" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B354" s="8" t="s">
+      <c r="B354" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B355" s="8" t="s">
+      <c r="B355" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B356" s="8" t="s">
+      <c r="B356" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B357" s="8" t="s">
+      <c r="B357" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B358" s="8" t="s">
+      <c r="B358" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B359" s="8" t="s">
+      <c r="B359" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B360" s="8" t="s">
+      <c r="B360" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B361" s="8" t="s">
+      <c r="B361" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B362" s="8" t="s">
+      <c r="B362" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B363" s="8" t="s">
+      <c r="B363" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B364" s="8" t="s">
+      <c r="B364" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B365" s="8" t="s">
+      <c r="B365" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B366" s="8" t="s">
+      <c r="B366" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B368" s="8" t="s">
+      <c r="B368" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B369" s="8" t="s">
+      <c r="B369" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B370" s="8" t="s">
+      <c r="B370" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B371" s="8" t="s">
+      <c r="B371" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B372" s="8" t="s">
+      <c r="B372" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B373" s="8" t="s">
+      <c r="B373" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B374" s="8" t="s">
+      <c r="B374" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B375" s="8" t="s">
+      <c r="B375" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B376" s="8" t="s">
+      <c r="B376" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B377" s="8" t="s">
+      <c r="B377" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B378" s="8" t="s">
+      <c r="B378" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B379" s="8" t="s">
+      <c r="B379" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B380" s="8" t="s">
+      <c r="B380" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="5" t="s">
+    <row r="381" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6585,407 +6594,407 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="7" t="s">
+      <c r="A384" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" s="8" t="s">
+      <c r="A386" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" s="8" t="s">
+      <c r="A387" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" s="8" t="s">
+      <c r="A388" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" s="8" t="s">
+      <c r="A389" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" s="8" t="s">
+      <c r="A390" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" s="8" t="s">
+      <c r="A391" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" s="8" t="s">
+      <c r="A392" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="8" t="s">
+      <c r="A393" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" s="8" t="s">
+      <c r="A394" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" s="8" t="s">
+      <c r="A396" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" s="8" t="s">
+      <c r="A397" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" s="8" t="s">
+      <c r="A398" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" s="8" t="s">
+      <c r="A399" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" s="8" t="s">
+      <c r="A400" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" s="8" t="s">
+      <c r="A401" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" s="8" t="s">
+      <c r="A402" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" s="8" t="s">
+      <c r="A403" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" s="8" t="s">
+      <c r="A404" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" s="8" t="s">
+      <c r="A405" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" s="8" t="s">
+      <c r="A406" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" s="8" t="s">
+      <c r="A407" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" s="8" t="s">
+      <c r="A408" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" s="8" t="s">
+      <c r="A409" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" s="8" t="s">
+      <c r="A410" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" s="8" t="s">
+      <c r="A411" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="8" t="s">
+      <c r="A412" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" s="8" t="s">
+      <c r="A413" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" s="8" t="s">
+      <c r="A414" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="8" t="s">
+      <c r="A415" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" s="8" t="s">
+      <c r="A416" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" s="8" t="s">
+      <c r="A417" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" s="8" t="s">
+      <c r="A418" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" s="8" t="s">
+      <c r="A419" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" s="8" t="s">
+      <c r="A420" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" s="8" t="s">
+      <c r="A422" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" s="8" t="s">
+      <c r="A423" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" s="8" t="s">
+      <c r="A424" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" s="8" t="s">
+      <c r="A425" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" s="8" t="s">
+      <c r="A426" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" s="8" t="s">
+      <c r="A427" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" s="8" t="s">
+      <c r="A428" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" s="8" t="s">
+      <c r="A429" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" s="8" t="s">
+      <c r="A430" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" s="8" t="s">
+      <c r="A431" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" s="8" t="s">
+      <c r="A432" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" s="8" t="s">
+      <c r="A433" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" s="8" t="s">
+      <c r="A434" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" s="8" t="s">
+      <c r="A435" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" s="8" t="s">
+      <c r="A436" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" s="8" t="s">
+      <c r="A437" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" s="8" t="s">
+      <c r="A438" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" s="8" t="s">
+      <c r="A439" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" s="8" t="s">
+      <c r="A440" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" s="8" t="s">
+      <c r="A441" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" s="8" t="s">
+      <c r="A442" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" s="8" t="s">
+      <c r="A443" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" s="8" t="s">
+      <c r="A444" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" s="8" t="s">
+      <c r="A445" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" s="8" t="s">
+      <c r="A446" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" s="8" t="s">
+      <c r="A447" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" s="8" t="s">
+      <c r="A448" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" s="8" t="s">
+      <c r="A449" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" s="8" t="s">
+      <c r="A450" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" s="8" t="s">
+      <c r="A451" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" s="8" t="s">
+      <c r="A452" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" s="8" t="s">
+      <c r="A453" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" s="8" t="s">
+      <c r="A454" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" s="8" t="s">
+      <c r="A455" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" s="8" t="s">
+      <c r="A456" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" s="8" t="s">
+      <c r="A457" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" s="8" t="s">
+      <c r="A458" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" s="8" t="s">
+      <c r="A459" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" s="8" t="s">
+      <c r="A460" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" s="8" t="s">
+      <c r="A461" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" s="8" t="s">
+      <c r="A462" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" s="8" t="s">
+      <c r="A463" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" s="8" t="s">
+      <c r="A464" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" s="8" t="s">
+      <c r="A465" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7015,7 +7024,7 @@
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" s="7" t="s">
+      <c r="A473" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7045,7 +7054,7 @@
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" s="7" t="s">
+      <c r="A482" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7080,7 +7089,7 @@
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" s="7" t="s">
+      <c r="A490" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7089,13 +7098,18 @@
         <v>204</v>
       </c>
     </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
     <row r="496" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="7" t="s">
+      <c r="A497" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7103,13 +7117,23 @@
       <c r="A498" t="s">
         <v>25</v>
       </c>
-      <c r="B498" s="6" t="s">
+      <c r="B498" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="7" t="s">
+      <c r="A500" s="6" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
